--- a/forms/app/community_unit-edit.xlsx
+++ b/forms/app/community_unit-edit.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
   <si>
     <t>type</t>
   </si>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t>facility_id</t>
-  </si>
-  <si>
-    <t>concat(../../geolocation/latitude, concat(' ', ../../geolocation/longitude))</t>
   </si>
 </sst>
 </file>
@@ -1344,10 +1341,10 @@
   <dimension ref="A1:AB949"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
@@ -1987,9 +1984,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="K17" s="4"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
@@ -12810,7 +12805,7 @@
       </c>
       <c r="C2" s="22">
         <f ca="1">NOW()</f>
-        <v>44837.641277199073</v>
+        <v>44838.668524652778</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>76</v>

--- a/forms/app/community_unit-edit.xlsx
+++ b/forms/app/community_unit-edit.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
   <si>
     <t>type</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>../inputs/contact/_id</t>
-  </si>
-  <si>
-    <t>geolocation</t>
   </si>
   <si>
     <t>introduction</t>
@@ -469,6 +466,32 @@
   </cellStyles>
   <dxfs count="53">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFC27BA0"/>
       </font>
@@ -607,14 +630,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9D2E9"/>
           <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -886,24 +901,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1338,13 +1335,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB949"/>
+  <dimension ref="A1:AB948"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
@@ -1503,10 +1500,10 @@
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1">
       <c r="A4" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>37</v>
@@ -1617,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1727,7 +1724,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1966,18 +1963,10 @@
       <c r="AB16" s="8"/>
     </row>
     <row r="17" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="4"/>
@@ -2004,13 +1993,23 @@
       <c r="AB17" s="8"/>
     </row>
     <row r="18" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -2034,57 +2033,55 @@
       <c r="AB18" s="8"/>
     </row>
     <row r="19" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="4" t="s">
-        <v>20</v>
+      <c r="B19" s="3" t="s">
+        <v>46</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="C19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
     </row>
     <row r="20" spans="1:28" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
+      <c r="B20" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2113,29 +2110,29 @@
     </row>
     <row r="21" spans="1:28" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="B21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
+      <c r="P21" s="4">
+        <v>100</v>
+      </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
@@ -2151,29 +2148,23 @@
     </row>
     <row r="22" spans="1:28" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="4">
-        <v>100</v>
-      </c>
+      <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
@@ -2189,14 +2180,22 @@
     </row>
     <row r="23" spans="1:28" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2219,119 +2218,109 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="3" t="s">
+    <row r="24" spans="1:28">
+      <c r="A24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="E24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
     </row>
     <row r="27" spans="1:28" ht="15.75" customHeight="1">
       <c r="A27" s="14"/>
@@ -2669,7 +2658,7 @@
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="F38" s="3"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -2759,7 +2748,7 @@
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -3114,64 +3103,64 @@
       <c r="AB52" s="14"/>
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
-      <c r="X53" s="14"/>
-      <c r="Y53" s="14"/>
-      <c r="Z53" s="14"/>
-      <c r="AA53" s="14"/>
-      <c r="AB53" s="14"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="15"/>
+      <c r="Z53" s="15"/>
+      <c r="AA53" s="15"/>
+      <c r="AB53" s="15"/>
     </row>
     <row r="54" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="15"/>
-      <c r="X54" s="15"/>
-      <c r="Y54" s="15"/>
-      <c r="Z54" s="15"/>
-      <c r="AA54" s="15"/>
-      <c r="AB54" s="15"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="14"/>
+      <c r="Z54" s="14"/>
+      <c r="AA54" s="14"/>
+      <c r="AB54" s="14"/>
     </row>
     <row r="55" spans="1:28" ht="15.75" customHeight="1">
       <c r="A55" s="14"/>
@@ -3294,10 +3283,10 @@
       <c r="AB58" s="14"/>
     </row>
     <row r="59" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A59" s="14"/>
+      <c r="A59" s="4"/>
       <c r="B59" s="14"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
@@ -3324,10 +3313,10 @@
       <c r="AB59" s="14"/>
     </row>
     <row r="60" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A60" s="4"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
@@ -3354,34 +3343,34 @@
       <c r="AB60" s="14"/>
     </row>
     <row r="61" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
-      <c r="T61" s="14"/>
-      <c r="U61" s="14"/>
-      <c r="V61" s="14"/>
-      <c r="W61" s="14"/>
-      <c r="X61" s="14"/>
-      <c r="Y61" s="14"/>
-      <c r="Z61" s="14"/>
-      <c r="AA61" s="14"/>
-      <c r="AB61" s="14"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="4"/>
     </row>
     <row r="62" spans="1:28" ht="15.75" customHeight="1">
       <c r="A62" s="4"/>
@@ -3446,8 +3435,8 @@
     <row r="64" spans="1:28" ht="15.75" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -3476,8 +3465,8 @@
     <row r="65" spans="1:28" ht="15.75" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -3505,93 +3494,93 @@
     </row>
     <row r="66" spans="1:28" ht="15.75" customHeight="1">
       <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4"/>
-      <c r="AA66" s="4"/>
-      <c r="AB66" s="4"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="14"/>
+      <c r="W66" s="14"/>
+      <c r="X66" s="14"/>
+      <c r="Y66" s="14"/>
+      <c r="Z66" s="14"/>
+      <c r="AA66" s="14"/>
+      <c r="AB66" s="14"/>
     </row>
     <row r="67" spans="1:28" ht="15.75" customHeight="1">
       <c r="A67" s="4"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="14"/>
-      <c r="T67" s="14"/>
-      <c r="U67" s="14"/>
-      <c r="V67" s="14"/>
-      <c r="W67" s="14"/>
-      <c r="X67" s="14"/>
-      <c r="Y67" s="14"/>
-      <c r="Z67" s="14"/>
-      <c r="AA67" s="14"/>
-      <c r="AB67" s="14"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="4"/>
+      <c r="AB67" s="4"/>
     </row>
     <row r="68" spans="1:28" ht="15.75" customHeight="1">
       <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4"/>
-      <c r="AA68" s="4"/>
-      <c r="AB68" s="4"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="14"/>
+      <c r="W68" s="14"/>
+      <c r="X68" s="14"/>
+      <c r="Y68" s="14"/>
+      <c r="Z68" s="14"/>
+      <c r="AA68" s="14"/>
+      <c r="AB68" s="14"/>
     </row>
     <row r="69" spans="1:28" ht="15.75" customHeight="1">
       <c r="A69" s="4"/>
@@ -3656,8 +3645,8 @@
     <row r="71" spans="1:28" ht="15.75" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
@@ -3686,8 +3675,8 @@
     <row r="72" spans="1:28" ht="15.75" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
@@ -3806,8 +3795,8 @@
     <row r="76" spans="1:28" ht="15.75" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
@@ -3836,8 +3825,8 @@
     <row r="77" spans="1:28" ht="15.75" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="14"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
@@ -3866,8 +3855,8 @@
     <row r="78" spans="1:28" ht="15.75" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
@@ -3896,8 +3885,8 @@
     <row r="79" spans="1:28" ht="15.75" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
@@ -3926,8 +3915,8 @@
     <row r="80" spans="1:28" ht="15.75" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
@@ -3955,33 +3944,33 @@
     </row>
     <row r="81" spans="1:28" ht="15.75" customHeight="1">
       <c r="A81" s="4"/>
-      <c r="B81" s="14"/>
+      <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="14"/>
-      <c r="P81" s="14"/>
-      <c r="Q81" s="14"/>
-      <c r="R81" s="14"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="14"/>
-      <c r="U81" s="14"/>
-      <c r="V81" s="14"/>
-      <c r="W81" s="14"/>
-      <c r="X81" s="14"/>
-      <c r="Y81" s="14"/>
-      <c r="Z81" s="14"/>
-      <c r="AA81" s="14"/>
-      <c r="AB81" s="14"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
+      <c r="AA81" s="4"/>
+      <c r="AB81" s="4"/>
     </row>
     <row r="82" spans="1:28" ht="15.75" customHeight="1">
       <c r="A82" s="4"/>
@@ -4076,8 +4065,8 @@
     <row r="85" spans="1:28" ht="15.75" customHeight="1">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -4166,8 +4155,8 @@
     <row r="88" spans="1:28" ht="15.75" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -4466,8 +4455,8 @@
     <row r="98" spans="1:28" ht="15.75" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
@@ -4526,8 +4515,8 @@
     <row r="100" spans="1:28" ht="15.75" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -4616,8 +4605,8 @@
     <row r="103" spans="1:28" ht="15.75" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -4706,8 +4695,8 @@
     <row r="106" spans="1:28" ht="15.75" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
@@ -4736,8 +4725,8 @@
     <row r="107" spans="1:28" ht="15.75" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -4769,7 +4758,7 @@
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
+      <c r="F108" s="3"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
@@ -4796,10 +4785,10 @@
     <row r="109" spans="1:28" ht="15.75" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="3"/>
+      <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
@@ -5036,8 +5025,8 @@
     <row r="117" spans="1:28" ht="15.75" customHeight="1">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -5066,8 +5055,8 @@
     <row r="118" spans="1:28" ht="15.75" customHeight="1">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
@@ -5096,8 +5085,8 @@
     <row r="119" spans="1:28" ht="15.75" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
@@ -5126,8 +5115,8 @@
     <row r="120" spans="1:28" ht="15.75" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
@@ -5156,8 +5145,8 @@
     <row r="121" spans="1:28" ht="15.75" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
@@ -5186,8 +5175,8 @@
     <row r="122" spans="1:28" ht="15.75" customHeight="1">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
@@ -5216,8 +5205,8 @@
     <row r="123" spans="1:28" ht="15.75" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
@@ -5246,8 +5235,8 @@
     <row r="124" spans="1:28" ht="15.75" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
@@ -5276,8 +5265,8 @@
     <row r="125" spans="1:28" ht="15.75" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
@@ -5306,8 +5295,8 @@
     <row r="126" spans="1:28" ht="15.75" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
@@ -5336,8 +5325,8 @@
     <row r="127" spans="1:28" ht="15.75" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
@@ -5364,70 +5353,70 @@
       <c r="AB127" s="4"/>
     </row>
     <row r="128" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
-      <c r="O128" s="4"/>
-      <c r="P128" s="4"/>
-      <c r="Q128" s="4"/>
-      <c r="R128" s="4"/>
-      <c r="S128" s="4"/>
-      <c r="T128" s="4"/>
-      <c r="U128" s="4"/>
-      <c r="V128" s="4"/>
-      <c r="W128" s="4"/>
-      <c r="X128" s="4"/>
-      <c r="Y128" s="4"/>
-      <c r="Z128" s="4"/>
-      <c r="AA128" s="4"/>
-      <c r="AB128" s="4"/>
+      <c r="A128" s="17"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="17"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
+      <c r="R128" s="17"/>
+      <c r="S128" s="17"/>
+      <c r="T128" s="17"/>
+      <c r="U128" s="17"/>
+      <c r="V128" s="17"/>
+      <c r="W128" s="17"/>
+      <c r="X128" s="17"/>
+      <c r="Y128" s="17"/>
+      <c r="Z128" s="17"/>
+      <c r="AA128" s="17"/>
+      <c r="AB128" s="17"/>
     </row>
     <row r="129" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A129" s="17"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="17"/>
-      <c r="G129" s="17"/>
-      <c r="H129" s="17"/>
-      <c r="I129" s="17"/>
-      <c r="J129" s="17"/>
-      <c r="K129" s="17"/>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
-      <c r="R129" s="17"/>
-      <c r="S129" s="17"/>
-      <c r="T129" s="17"/>
-      <c r="U129" s="17"/>
-      <c r="V129" s="17"/>
-      <c r="W129" s="17"/>
-      <c r="X129" s="17"/>
-      <c r="Y129" s="17"/>
-      <c r="Z129" s="17"/>
-      <c r="AA129" s="17"/>
-      <c r="AB129" s="17"/>
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+      <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="4"/>
+      <c r="AA129" s="4"/>
+      <c r="AB129" s="4"/>
     </row>
     <row r="130" spans="1:28" ht="15.75" customHeight="1">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
@@ -5456,8 +5445,8 @@
     <row r="131" spans="1:28" ht="15.75" customHeight="1">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
@@ -5486,8 +5475,8 @@
     <row r="132" spans="1:28" ht="15.75" customHeight="1">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
@@ -5516,8 +5505,8 @@
     <row r="133" spans="1:28" ht="15.75" customHeight="1">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
@@ -5546,8 +5535,8 @@
     <row r="134" spans="1:28" ht="15.75" customHeight="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
@@ -5576,41 +5565,41 @@
     <row r="135" spans="1:28" ht="15.75" customHeight="1">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="15"/>
       <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="15"/>
       <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-      <c r="R135" s="4"/>
-      <c r="S135" s="4"/>
-      <c r="T135" s="4"/>
-      <c r="U135" s="4"/>
-      <c r="V135" s="4"/>
-      <c r="W135" s="4"/>
-      <c r="X135" s="4"/>
-      <c r="Y135" s="4"/>
-      <c r="Z135" s="4"/>
-      <c r="AA135" s="4"/>
-      <c r="AB135" s="4"/>
+      <c r="L135" s="15"/>
+      <c r="M135" s="15"/>
+      <c r="N135" s="15"/>
+      <c r="O135" s="15"/>
+      <c r="P135" s="15"/>
+      <c r="Q135" s="15"/>
+      <c r="R135" s="15"/>
+      <c r="S135" s="15"/>
+      <c r="T135" s="15"/>
+      <c r="U135" s="15"/>
+      <c r="V135" s="15"/>
+      <c r="W135" s="15"/>
+      <c r="X135" s="15"/>
+      <c r="Y135" s="15"/>
+      <c r="Z135" s="15"/>
+      <c r="AA135" s="15"/>
+      <c r="AB135" s="15"/>
     </row>
     <row r="136" spans="1:28" ht="15.75" customHeight="1">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
       <c r="E136" s="15"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="8"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
       <c r="J136" s="15"/>
@@ -5636,15 +5625,15 @@
     <row r="137" spans="1:28" ht="15.75" customHeight="1">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
       <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
       <c r="J137" s="15"/>
-      <c r="K137" s="4"/>
+      <c r="K137" s="15"/>
       <c r="L137" s="15"/>
       <c r="M137" s="15"/>
       <c r="N137" s="15"/>
@@ -5670,7 +5659,7 @@
       <c r="D138" s="4"/>
       <c r="E138" s="15"/>
       <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
+      <c r="G138" s="15"/>
       <c r="H138" s="15"/>
       <c r="I138" s="15"/>
       <c r="J138" s="15"/>
@@ -5694,34 +5683,34 @@
       <c r="AB138" s="15"/>
     </row>
     <row r="139" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="15"/>
-      <c r="L139" s="15"/>
-      <c r="M139" s="15"/>
-      <c r="N139" s="15"/>
-      <c r="O139" s="15"/>
-      <c r="P139" s="15"/>
-      <c r="Q139" s="15"/>
-      <c r="R139" s="15"/>
-      <c r="S139" s="15"/>
-      <c r="T139" s="15"/>
-      <c r="U139" s="15"/>
-      <c r="V139" s="15"/>
-      <c r="W139" s="15"/>
-      <c r="X139" s="15"/>
-      <c r="Y139" s="15"/>
-      <c r="Z139" s="15"/>
-      <c r="AA139" s="15"/>
-      <c r="AB139" s="15"/>
+      <c r="A139" s="14"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="14"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="14"/>
+      <c r="O139" s="14"/>
+      <c r="P139" s="14"/>
+      <c r="Q139" s="14"/>
+      <c r="R139" s="14"/>
+      <c r="S139" s="14"/>
+      <c r="T139" s="14"/>
+      <c r="U139" s="14"/>
+      <c r="V139" s="14"/>
+      <c r="W139" s="14"/>
+      <c r="X139" s="14"/>
+      <c r="Y139" s="14"/>
+      <c r="Z139" s="14"/>
+      <c r="AA139" s="14"/>
+      <c r="AB139" s="14"/>
     </row>
     <row r="140" spans="1:28" ht="15.75" customHeight="1">
       <c r="A140" s="14"/>
@@ -5754,34 +5743,34 @@
       <c r="AB140" s="14"/>
     </row>
     <row r="141" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A141" s="14"/>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="14"/>
-      <c r="K141" s="14"/>
-      <c r="L141" s="14"/>
-      <c r="M141" s="14"/>
-      <c r="N141" s="14"/>
-      <c r="O141" s="14"/>
-      <c r="P141" s="14"/>
-      <c r="Q141" s="14"/>
-      <c r="R141" s="14"/>
-      <c r="S141" s="14"/>
-      <c r="T141" s="14"/>
-      <c r="U141" s="14"/>
-      <c r="V141" s="14"/>
-      <c r="W141" s="14"/>
-      <c r="X141" s="14"/>
-      <c r="Y141" s="14"/>
-      <c r="Z141" s="14"/>
-      <c r="AA141" s="14"/>
-      <c r="AB141" s="14"/>
+      <c r="A141" s="17"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="17"/>
+      <c r="I141" s="17"/>
+      <c r="J141" s="17"/>
+      <c r="K141" s="17"/>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
+      <c r="P141" s="17"/>
+      <c r="Q141" s="17"/>
+      <c r="R141" s="17"/>
+      <c r="S141" s="17"/>
+      <c r="T141" s="17"/>
+      <c r="U141" s="17"/>
+      <c r="V141" s="17"/>
+      <c r="W141" s="17"/>
+      <c r="X141" s="17"/>
+      <c r="Y141" s="17"/>
+      <c r="Z141" s="17"/>
+      <c r="AA141" s="17"/>
+      <c r="AB141" s="17"/>
     </row>
     <row r="142" spans="1:28" ht="15.75" customHeight="1">
       <c r="A142" s="17"/>
@@ -7974,34 +7963,7 @@
       <c r="AB214" s="17"/>
     </row>
     <row r="215" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A215" s="17"/>
-      <c r="B215" s="17"/>
-      <c r="C215" s="17"/>
-      <c r="D215" s="17"/>
-      <c r="E215" s="17"/>
-      <c r="F215" s="17"/>
-      <c r="G215" s="17"/>
-      <c r="H215" s="17"/>
-      <c r="I215" s="17"/>
-      <c r="J215" s="17"/>
-      <c r="K215" s="17"/>
-      <c r="L215" s="17"/>
-      <c r="M215" s="17"/>
-      <c r="N215" s="17"/>
-      <c r="O215" s="17"/>
-      <c r="P215" s="17"/>
-      <c r="Q215" s="17"/>
-      <c r="R215" s="17"/>
-      <c r="S215" s="17"/>
-      <c r="T215" s="17"/>
-      <c r="U215" s="17"/>
-      <c r="V215" s="17"/>
-      <c r="W215" s="17"/>
-      <c r="X215" s="17"/>
-      <c r="Y215" s="17"/>
-      <c r="Z215" s="17"/>
-      <c r="AA215" s="17"/>
-      <c r="AB215" s="17"/>
+      <c r="E215" s="18"/>
     </row>
     <row r="216" spans="1:28" ht="15.75" customHeight="1">
       <c r="E216" s="18"/>
@@ -10202,217 +10164,214 @@
     <row r="948" spans="5:5" ht="15.75" customHeight="1">
       <c r="E948" s="18"/>
     </row>
-    <row r="949" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E949" s="18"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C22">
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="52" priority="12">
-      <formula>AND($A22="end repeat", $C22 = "", $C22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", #REF! = "", $K22 = "", $L22 = "", #REF! = "", $O22 = "", $P22 = "")</formula>
+      <formula>AND($A21="end repeat", $C21 = "", $C21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", #REF! = "", $K21 = "", $L21 = "", #REF! = "", $O21 = "", $P21 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="51" priority="13">
-      <formula>AND($A22="begin repeat", NOT($C22 = ""))</formula>
+      <formula>AND($A21="begin repeat", NOT($C21 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="50" priority="14">
-      <formula>AND($A22="end group", $C22 = "", $C22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", #REF! = "", $K22 = "", $L22 = "", #REF! = "", $O22 = "", $P22 = "")</formula>
+      <formula>AND($A21="end group", $C21 = "", $C21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", #REF! = "", $K21 = "", $L21 = "", #REF! = "", $O21 = "", $P21 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="49" priority="15">
-      <formula>AND($A22="begin group", NOT($C22 = ""))</formula>
+      <formula>AND($A21="begin group", NOT($C21 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="48" priority="16">
-      <formula>AND(AND(NOT($A22 = "end group"), NOT($A22 = "end repeat"), NOT($A22 = "")), $C22 = "")</formula>
+      <formula>AND(AND(NOT($A21 = "end group"), NOT($A21 = "end repeat"), NOT($A21 = "")), $C21 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H3 I1:J21 K1:L24 M1:N21 O1:AB24 B23:B24 I23:J24 M23:N24 A26:AB949 C5:H24 D4:H4 B5:B21 A5:A24">
+  <conditionalFormatting sqref="A1:H3 B22:B23 I22:J23 M22:N23 A25:AB948 D4:H4 I1:J20 K1:L23 M1:N20 O1:AB23 C5:H23 B5:B20 A5:A23">
     <cfRule type="containsText" dxfId="47" priority="17" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH("calculate",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H3 I1:J21 K1:L24 M1:N21 O1:AB24 B23:B24 I23:J24 M23:N24 A26:AB949 C5:H24 D4:H4 B5:B21 A5:A24">
+  <conditionalFormatting sqref="A1:H3 B22:B23 I22:J23 M22:N23 A25:AB948 D4:H4 I1:J20 K1:L23 M1:N20 O1:AB23 C5:H23 B5:B20 A5:A23">
     <cfRule type="expression" dxfId="46" priority="18">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H3 I1:J21 K1:L24 M1:N21 O1:AB24 B23:B24 I23:J24 M23:N24 A26:AB949 C5:H24 D4:H4 B5:B21 A5:A24">
+  <conditionalFormatting sqref="A1:H3 B22:B23 I22:J23 M22:N23 A25:AB948 D4:H4 I1:J20 K1:L23 M1:N20 O1:AB23 C5:H23 B5:B20 A5:A23">
     <cfRule type="expression" dxfId="45" priority="19">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $K1 = "", $L1 = "", $M1 = "", $O1 = "", $P1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H3 I1:J21 K1:L24 M1:N21 O1:AB24 B23:B24 I23:J24 M23:N24 A26:AB949 C5:H24 D4:H4 B5:B21 A5:A24">
+  <conditionalFormatting sqref="A1:H3 B22:B23 I22:J23 M22:N23 A25:AB948 D4:H4 I1:J20 K1:L23 M1:N20 O1:AB23 C5:H23 B5:B20 A5:A23">
     <cfRule type="cellIs" dxfId="44" priority="20" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="43" priority="21">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$979, "begin group") = COUNTIF($A$1:$A$979, "end group"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="42" priority="22">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$970, "begin group") = COUNTIF($A$1:$A$979, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K24 K26:K949">
-    <cfRule type="expression" dxfId="41" priority="23">
+  <conditionalFormatting sqref="K25:K948 K1:K23">
+    <cfRule type="expression" dxfId="43" priority="23">
       <formula>AND($K1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D3 C26:D949 C5:D24 D4">
-    <cfRule type="expression" dxfId="40" priority="24">
+  <conditionalFormatting sqref="C1:D3 C25:D948 D4 C5:D23">
+    <cfRule type="expression" dxfId="42" priority="24">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3 B23:B24 C24:D24 B26:B949 B5:B21">
-    <cfRule type="expression" dxfId="39" priority="25">
+  <conditionalFormatting sqref="B1:B3 B22:B23 C23:D23 B25:B948 B5:B20">
+    <cfRule type="expression" dxfId="41" priority="25">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3 A26:A949 A5:A24">
-    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
+  <conditionalFormatting sqref="A1:A3 A25:A948 A5:A23">
+    <cfRule type="cellIs" dxfId="40" priority="26" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3 C22 B23:B24 C24:D24 B26:B949 B5:B21">
-    <cfRule type="expression" dxfId="37" priority="27">
-      <formula>COUNTIF($B$2:$B$978,B2)&gt;1</formula>
+  <conditionalFormatting sqref="C21 B2:B3 B22:B23 C23:D23 B25:B948 B5:B20">
+    <cfRule type="expression" dxfId="39" priority="27">
+      <formula>COUNTIF($B$2:$B$977,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="36" priority="28" operator="notEqual">
+    <cfRule type="cellIs" dxfId="38" priority="28" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D1">
-    <cfRule type="notContainsText" dxfId="35" priority="29" operator="notContains" text="label">
+    <cfRule type="notContainsText" dxfId="37" priority="29" operator="notContains" text="label">
       <formula>ISERROR(SEARCH("label",C1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="notEqual">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="notEqual">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="notEqual">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="notContainsText" dxfId="30" priority="34" operator="notContains" text="constraint_message">
+    <cfRule type="notContainsText" dxfId="32" priority="34" operator="notContains" text="constraint_message">
       <formula>ISERROR(SEARCH("constraint_message",I1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="29" priority="35" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="28" priority="36" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="36" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1">
-    <cfRule type="notContainsText" dxfId="27" priority="37" operator="notContains" text="hint">
+    <cfRule type="notContainsText" dxfId="29" priority="37" operator="notContains" text="hint">
       <formula>ISERROR(SEARCH("hint",M1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="26" priority="38" operator="notEqual">
+    <cfRule type="cellIs" dxfId="28" priority="38" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:AB1">
-    <cfRule type="cellIs" dxfId="25" priority="39" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:J21 I23:J24 I26:J949">
-    <cfRule type="expression" dxfId="24" priority="40">
+  <conditionalFormatting sqref="I22:J23 I25:J948 I1:J20">
+    <cfRule type="expression" dxfId="26" priority="40">
       <formula>AND(NOT($H1 = ""), $I1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H3 I1:J21 K1:L24 M1:N21 O1:AB24 B23:B24 I23:J24 M23:N24 A26:AB949 C5:H24 D4:H4 B5:B21 A5:A24">
-    <cfRule type="expression" dxfId="23" priority="41">
+  <conditionalFormatting sqref="A1:H3 B22:B23 I22:J23 M22:N23 A25:AB948 D4:H4 I1:J20 K1:L23 M1:N20 O1:AB23 C5:H23 B5:B20 A5:A23">
+    <cfRule type="expression" dxfId="25" priority="41">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H3 I1:J21 K1:L24 M1:N21 O1:AB24 B23:B24 I23:J24 M23:N24 A26:AB949 C5:H24 D4:H4 B5:B21 A5:A24">
-    <cfRule type="expression" dxfId="22" priority="42">
+  <conditionalFormatting sqref="A1:H3 B22:B23 I22:J23 M22:N23 A25:AB948 D4:H4 I1:J20 K1:L23 M1:N20 O1:AB23 C5:H23 B5:B20 A5:A23">
+    <cfRule type="expression" dxfId="24" priority="42">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $K1 = "", $L1 = "", $M1 = "", $O1 = "", $P1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND($A4="begin group", NOT($B4 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>AND($A4="end group", $B4 = "", $C4 = "", $D4 = "", $E4 = "", $F4 = "", $G4 = "", $H4 = "", $I4 = "", $J4 = "", $K4 = "", $L4 = "", $M4 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>AND(AND(NOT($A4 = "end group"), NOT($A4 = "end repeat"), NOT($A4 = "")), $C4 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>AND(AND(NOT($A4 = "end group"), NOT($A4 = "end repeat"), NOT($A4 = "")), $B4 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="14" priority="8">
-      <formula>COUNTIF($B$2:$B$972,B4)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>AND($A4="begin repeat", NOT($B4 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>AND($A4="end repeat", $B4 = "", $C4 = "", $D4 = "", $E4 = "", $F4 = "", $G4 = "", $H4 = "", $I4 = "", $J4 = "", $K4 = "", $L4 = "", $M4 = "")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="2" priority="99">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$978, "begin group") = COUNTIF($A$1:$A$978, "end group"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="1" priority="100">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$969, "begin group") = COUNTIF($A$1:$A$978, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="0" priority="145">
+      <formula>COUNTIF($B$2:$B$971,B4)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E2:E24 E26:E949">
+    <dataValidation type="list" allowBlank="1" sqref="E25:E948 E2:E23">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10440,7 +10399,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>1</v>
@@ -10457,16 +10416,16 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -12696,62 +12655,62 @@
     <row r="888" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH("calculate",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH("calculate",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="1" priority="12">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $C2 = "", #REF! = "", #REF! = "", $C2 = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="0" priority="13">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $C2 = "", #REF! = "", #REF! = "", $C2 = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12778,40 +12737,40 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="22">
         <f ca="1">NOW()</f>
-        <v>44838.668524652778</v>
+        <v>44838.670120486109</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="21"/>
     </row>
